--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2792A58A-B322-4A02-88C3-2C163170FE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24491447-1DB0-40F0-A281-8485CE42F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1210,7 @@
         <v>1000</v>
       </c>
       <c r="D3" s="15">
-        <f>29500-C35</f>
+        <f>29500-C35-E8</f>
         <v>8000</v>
       </c>
       <c r="E3" s="14">
@@ -1241,6 +1241,7 @@
       <c r="C5" s="11">
         <v>500</v>
       </c>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1252,6 +1253,7 @@
       <c r="C6" s="11">
         <v>1000</v>
       </c>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1263,6 +1265,7 @@
       <c r="C7" s="11">
         <v>1900</v>
       </c>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1274,6 +1277,7 @@
       <c r="C8" s="11">
         <v>1900</v>
       </c>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1378,36 +1382,56 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="10">
+        <v>44562</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="10">
+        <v>44569</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="10">
+        <v>44576</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="10">
+        <v>44583</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="10">
+        <v>44590</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24491447-1DB0-40F0-A281-8485CE42F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1F0E71-0444-41B0-9164-4E207CC48350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>20400</v>
+        <v>18500</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -884,11 +884,21 @@
       <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44513</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -1133,7 +1143,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>9100</v>
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1F0E71-0444-41B0-9164-4E207CC48350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F834E584-4A25-4D99-A751-4DF296F866A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -734,7 +734,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -904,11 +904,21 @@
       <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44520</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -1143,7 +1153,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>11000</v>
+        <v>13000</v>
       </c>
     </row>
   </sheetData>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F834E584-4A25-4D99-A751-4DF296F866A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D7394-4C6A-4EB2-B5CA-057179C52500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>16500</v>
+        <v>14900</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -924,11 +924,21 @@
       <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44527</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1600</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -1153,7 +1163,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>13000</v>
+        <v>14600</v>
       </c>
     </row>
   </sheetData>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D7394-4C6A-4EB2-B5CA-057179C52500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9212D4A-8204-4B31-B7A9-DF1A132359E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D3" s="15">
         <f>29500-C35-E8</f>
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="E3" s="14">
         <v>29500</v>
@@ -1416,7 +1416,7 @@
         <v>44562</v>
       </c>
       <c r="C18" s="11">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>44569</v>
       </c>
       <c r="C19" s="11">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>44576</v>
       </c>
       <c r="C20" s="11">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>44583</v>
       </c>
       <c r="C21" s="11">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>44590</v>
       </c>
       <c r="C22" s="11">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" s="13">
         <f>SUM(C3:C34)</f>
-        <v>21500</v>
+        <v>29200</v>
       </c>
     </row>
   </sheetData>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9212D4A-8204-4B31-B7A9-DF1A132359E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BA607D-9E52-471C-862F-FE4CB485EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -944,11 +944,21 @@
       <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44534</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -1163,7 +1173,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>14600</v>
+        <v>15600</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BA607D-9E52-471C-862F-FE4CB485EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A7103-989E-4CB4-BCF9-D1718AC2D167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D3" s="15">
         <f>29500-C35-E8</f>
-        <v>300</v>
+        <v>-800</v>
       </c>
       <c r="E3" s="14">
         <v>29500</v>
@@ -1360,7 +1360,7 @@
         <v>44520</v>
       </c>
       <c r="C12" s="11">
-        <v>1900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
         <v>44527</v>
       </c>
       <c r="C13" s="11">
-        <v>1900</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>44562</v>
       </c>
       <c r="C18" s="11">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>44569</v>
       </c>
       <c r="C19" s="11">
-        <v>1000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,9 +1447,7 @@
       <c r="B20" s="10">
         <v>44576</v>
       </c>
-      <c r="C20" s="11">
-        <v>1900</v>
-      </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1458,9 +1456,7 @@
       <c r="B21" s="10">
         <v>44583</v>
       </c>
-      <c r="C21" s="11">
-        <v>1900</v>
-      </c>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1469,9 +1465,7 @@
       <c r="B22" s="10">
         <v>44590</v>
       </c>
-      <c r="C22" s="11">
-        <v>1900</v>
-      </c>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -1560,7 +1554,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" s="13">
         <f>SUM(C3:C34)</f>
-        <v>29200</v>
+        <v>30300</v>
       </c>
     </row>
   </sheetData>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYDRA999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A7103-989E-4CB4-BCF9-D1718AC2D167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
     <sheet name="DOC" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja de probabilidad" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -502,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -649,7 +648,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" location="Inicio!A1" display="Inicio" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D1" location="Inicio!A1" display="Inicio"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -657,7 +656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1181,20 +1180,20 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Inicio!A1" display="Inicio" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="Inicio!A1" display="Inicio"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Forma de pagos'!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Forma de pagos'!$C$3:$C$6</xm:f>
           </x14:formula1>
@@ -1207,11 +1206,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1250,7 @@
       </c>
       <c r="D3" s="15">
         <f>29500-C35-E8</f>
-        <v>-800</v>
+        <v>800</v>
       </c>
       <c r="E3" s="14">
         <v>29500</v>
@@ -1415,7 +1414,7 @@
         <v>44555</v>
       </c>
       <c r="C17" s="11">
-        <v>1900</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,7 +1425,7 @@
         <v>44562</v>
       </c>
       <c r="C18" s="11">
-        <v>3000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,7 +1436,7 @@
         <v>44569</v>
       </c>
       <c r="C19" s="11">
-        <v>6000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,7 +1446,9 @@
       <c r="B20" s="10">
         <v>44576</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1554,12 +1555,12 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" s="13">
         <f>SUM(C3:C34)</f>
-        <v>30300</v>
+        <v>28700</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A7103-989E-4CB4-BCF9-D1718AC2D167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CAA059-28AD-4E4C-973A-84D8558C3DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CAA059-28AD-4E4C-973A-84D8558C3DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A13701-6A87-4DB7-9582-4FA74BE2CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>13900</v>
+        <v>12000</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -968,7 +968,9 @@
       <c r="C15" s="10"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -1173,7 +1175,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>15600</v>
+        <v>17500</v>
       </c>
     </row>
   </sheetData>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A13701-6A87-4DB7-9582-4FA74BE2CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA22ACB4-9F27-4005-B077-94B7F1C290E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,10 +964,18 @@
       <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44541</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F15" s="11">
         <v>1900</v>
       </c>
@@ -1212,7 +1220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA22ACB4-9F27-4005-B077-94B7F1C290E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE8F397-BB34-45EC-B091-5670BE77782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,8 +984,12 @@
       <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44548</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="11"/>
@@ -994,8 +998,12 @@
       <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44555</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="11"/>
@@ -1004,8 +1012,12 @@
       <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44562</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="11"/>
@@ -1014,8 +1026,12 @@
       <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44569</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="11"/>
@@ -1024,8 +1040,12 @@
       <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44576</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="11"/>
@@ -1034,81 +1054,85 @@
       <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="10">
+        <v>44583</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>21</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>23</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>25</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>26</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -1118,7 +1142,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
@@ -1128,7 +1152,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -1138,7 +1162,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -1148,7 +1172,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -1158,7 +1182,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
@@ -1168,7 +1192,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -1178,7 +1202,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
@@ -1220,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE8F397-BB34-45EC-B091-5670BE77782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F850FE0C-F8F9-4E3D-ADA4-221F30B3471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>12000</v>
+        <v>10100</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -990,9 +990,15 @@
       <c r="C16" s="10">
         <v>44548</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -1207,7 +1213,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>17500</v>
+        <v>19400</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F850FE0C-F8F9-4E3D-ADA4-221F30B3471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9574C1-0A60-4F51-A08B-A885977CEEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -192,7 +192,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -221,6 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -660,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +735,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>10100</v>
+        <v>9000</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -1007,12 +1008,18 @@
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
-        <v>44555</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="18">
+        <v>44550</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1100</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -1022,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="10">
-        <v>44562</v>
+        <v>44555</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1036,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="10">
-        <v>44569</v>
+        <v>44562</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1050,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="10">
-        <v>44576</v>
+        <v>44569</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1064,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="10">
-        <v>44583</v>
+        <v>44576</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1075,7 +1082,9 @@
         <v>20</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10">
+        <v>44583</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="11"/>
@@ -1213,7 +1222,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>19400</v>
+        <v>20500</v>
       </c>
     </row>
   </sheetData>
@@ -1250,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1300,7 @@
       </c>
       <c r="D3" s="15">
         <f>29500-C35-E8</f>
-        <v>-800</v>
+        <v>2800</v>
       </c>
       <c r="E3" s="14">
         <v>29500</v>
@@ -1452,10 +1461,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="10">
-        <v>44555</v>
+        <v>44550</v>
       </c>
       <c r="C17" s="11">
-        <v>1900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,10 +1472,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="10">
-        <v>44562</v>
+        <v>44555</v>
       </c>
       <c r="C18" s="11">
-        <v>3000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,10 +1483,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="10">
-        <v>44569</v>
+        <v>44562</v>
       </c>
       <c r="C19" s="11">
-        <v>6000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,25 +1494,29 @@
         <v>18</v>
       </c>
       <c r="B20" s="10">
-        <v>44576</v>
-      </c>
-      <c r="C20" s="11"/>
+        <v>44569</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="10">
-        <v>44583</v>
-      </c>
-      <c r="C21" s="11"/>
+        <v>44576</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2300</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="10">
-        <v>44590</v>
+        <v>44583</v>
       </c>
       <c r="C22" s="11"/>
     </row>
@@ -1511,7 +1524,9 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="10">
+        <v>44590</v>
+      </c>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,7 +1609,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" s="13">
         <f>SUM(C3:C34)</f>
-        <v>30300</v>
+        <v>26700</v>
       </c>
     </row>
   </sheetData>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9574C1-0A60-4F51-A08B-A885977CEEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB445921-2095-47F8-9CDB-59F157DC245B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,10 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -680,13 +680,13 @@
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1008,7 +1008,7 @@
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>44550</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="D3" s="15">
         <f>29500-C35-E8</f>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="E3" s="14">
         <v>29500</v>
@@ -1486,7 +1486,7 @@
         <v>44562</v>
       </c>
       <c r="C19" s="11">
-        <v>1000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>44569</v>
       </c>
       <c r="C20" s="11">
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,9 +1507,7 @@
       <c r="B21" s="10">
         <v>44576</v>
       </c>
-      <c r="C21" s="11">
-        <v>2300</v>
-      </c>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1609,7 +1607,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" s="13">
         <f>SUM(C3:C34)</f>
-        <v>26700</v>
+        <v>29500</v>
       </c>
     </row>
   </sheetData>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB445921-2095-47F8-9CDB-59F157DC245B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593865E-6520-48FA-9C36-B41B6B22A187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>9000</v>
+        <v>7100</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -1031,9 +1031,15 @@
       <c r="C18" s="10">
         <v>44555</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -1222,7 +1228,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>20500</v>
+        <v>22400</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593865E-6520-48FA-9C36-B41B6B22A187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2FF2B9-B275-4D2B-AF66-22EAA5F55950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>7100</v>
+        <v>6100</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="10">
-        <v>44555</v>
+        <v>44554</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>12</v>
@@ -1049,11 +1049,17 @@
         <v>11</v>
       </c>
       <c r="C19" s="10">
-        <v>44562</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="11"/>
+        <v>44561</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -1228,7 +1234,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>22400</v>
+        <v>23400</v>
       </c>
     </row>
   </sheetData>

--- a/FECHA DE PAGOS TARJETA GRAFICA.xlsx
+++ b/FECHA DE PAGOS TARJETA GRAFICA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2FF2B9-B275-4D2B-AF66-22EAA5F55950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10098073-0D85-4997-A851-A6F643761C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F36</f>
-        <v>6100</v>
+        <v>2100</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -1049,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="10">
-        <v>44561</v>
+        <v>44559</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
@@ -1058,10 +1058,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>33</v>
       </c>
@@ -1234,7 +1234,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="13">
         <f>SUM(F3:F23)</f>
-        <v>23400</v>
+        <v>27400</v>
       </c>
     </row>
   </sheetData>
